--- a/【欧亚】测试记录表  -汇总统计.xlsx
+++ b/【欧亚】测试记录表  -汇总统计.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="198">
   <si>
     <t>退出登录</t>
   </si>
@@ -731,6 +731,10 @@
   </si>
   <si>
     <t xml:space="preserve">                    </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均出错次数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1130,15 +1134,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1148,7 +1143,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,11 +1323,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="286276656"/>
-        <c:axId val="286277216"/>
+        <c:axId val="334103680"/>
+        <c:axId val="334104240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="286276656"/>
+        <c:axId val="334103680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1370,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286277216"/>
+        <c:crossAx val="334104240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1374,7 +1378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286277216"/>
+        <c:axId val="334104240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,7 +1429,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286276656"/>
+        <c:crossAx val="334103680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1792,11 +1796,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="286280016"/>
-        <c:axId val="286280576"/>
+        <c:axId val="297818096"/>
+        <c:axId val="297818656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="286280016"/>
+        <c:axId val="297818096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,7 +1837,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286280576"/>
+        <c:crossAx val="297818656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1841,7 +1845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286280576"/>
+        <c:axId val="297818656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1892,7 +1896,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286280016"/>
+        <c:crossAx val="297818096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2311,11 +2315,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="286283936"/>
-        <c:axId val="220538496"/>
+        <c:axId val="331471840"/>
+        <c:axId val="331472400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="286283936"/>
+        <c:axId val="331471840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2358,7 +2362,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220538496"/>
+        <c:crossAx val="331472400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2366,7 +2370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220538496"/>
+        <c:axId val="331472400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,7 +2421,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286283936"/>
+        <c:crossAx val="331471840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2816,11 +2820,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="285905728"/>
-        <c:axId val="285906288"/>
+        <c:axId val="330910272"/>
+        <c:axId val="297805808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="285905728"/>
+        <c:axId val="330910272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,7 +2867,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285906288"/>
+        <c:crossAx val="297805808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2871,7 +2875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285906288"/>
+        <c:axId val="297805808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2922,7 +2926,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285905728"/>
+        <c:crossAx val="330910272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5579,38 +5583,38 @@
       <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
@@ -5619,19 +5623,19 @@
       <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
+      <c r="C3" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
@@ -5640,19 +5644,19 @@
       <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
@@ -5661,19 +5665,19 @@
       <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24">
@@ -5682,19 +5686,19 @@
       <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
@@ -5703,19 +5707,19 @@
       <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
@@ -5724,320 +5728,311 @@
       <c r="B8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
     </row>
     <row r="17" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" spans="1:13" s="18" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="56"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B20" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="56"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="53"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="C21:M21"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="C13:M13"/>
     <mergeCell ref="C14:M14"/>
@@ -6053,6 +6048,15 @@
     <mergeCell ref="C4:M4"/>
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="C21:M21"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="O2:O8">
@@ -7100,13 +7104,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7121,11 +7125,10 @@
     <col min="9" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="17.5" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
         <v>177</v>
       </c>
@@ -7157,19 +7160,16 @@
         <v>178</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="L1" s="28" t="s">
         <v>157</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" s="28" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -7205,16 +7205,13 @@
         <v>0.4</v>
       </c>
       <c r="M2" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="N2" s="34">
         <v>0.13</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="N2" s="33" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -7247,16 +7244,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="34">
-        <v>0</v>
-      </c>
-      <c r="N3" s="34">
         <v>0.8</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="N3" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -7288,17 +7282,14 @@
       <c r="L4" s="35">
         <v>0.93</v>
       </c>
-      <c r="M4" s="35">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N4" s="34">
+      <c r="M4" s="34">
         <v>0.93</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="N4" s="33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -7331,16 +7322,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="34">
-        <v>0</v>
-      </c>
-      <c r="N5" s="34">
         <v>0.87</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="N5" s="50" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -7373,16 +7361,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="34">
-        <v>0</v>
-      </c>
-      <c r="N6" s="34">
         <v>0.8</v>
       </c>
-      <c r="O6" s="50" t="s">
+      <c r="N6" s="50" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>196</v>
       </c>
@@ -7415,16 +7400,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="34">
-        <v>0</v>
-      </c>
-      <c r="N7" s="34">
-        <v>1</v>
-      </c>
-      <c r="O7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="50" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -7460,16 +7442,13 @@
         <v>1</v>
       </c>
       <c r="M8" s="34">
-        <v>0</v>
-      </c>
-      <c r="N8" s="34">
-        <v>1</v>
-      </c>
-      <c r="O8" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="50" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -7502,16 +7481,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="34">
-        <v>0</v>
-      </c>
-      <c r="N9" s="34">
-        <v>1</v>
-      </c>
-      <c r="O9" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="33" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -7544,16 +7520,13 @@
         <v>0.8</v>
       </c>
       <c r="M10" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="N10" s="34">
         <v>0.33</v>
       </c>
-      <c r="O10" s="33" t="s">
+      <c r="N10" s="33" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -7586,16 +7559,13 @@
         <v>1</v>
       </c>
       <c r="M11" s="34">
-        <v>0</v>
-      </c>
-      <c r="N11" s="34">
         <v>0.47</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="N11" s="33" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -7628,16 +7598,13 @@
         <v>1</v>
       </c>
       <c r="M12" s="34">
-        <v>0</v>
-      </c>
-      <c r="N12" s="34">
         <v>0.87</v>
       </c>
-      <c r="O12" s="33" t="s">
+      <c r="N12" s="33" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -7670,16 +7637,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="34">
-        <v>0</v>
-      </c>
-      <c r="N13" s="34">
         <v>0.93</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="N13" s="33" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -7712,13 +7676,10 @@
         <v>1</v>
       </c>
       <c r="M14" s="34">
-        <v>0</v>
-      </c>
-      <c r="N14" s="34">
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27">
         <v>14</v>
       </c>
@@ -7750,14 +7711,14 @@
       <c r="L15" s="34">
         <v>1</v>
       </c>
-      <c r="N15" s="34">
+      <c r="M15" s="34">
         <v>0.93</v>
       </c>
-      <c r="O15" s="33" t="s">
+      <c r="N15" s="33" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -7789,14 +7750,14 @@
       <c r="L16" s="34">
         <v>0.93</v>
       </c>
-      <c r="N16" s="34">
+      <c r="M16" s="34">
         <v>0.4</v>
       </c>
-      <c r="O16" s="33" t="s">
+      <c r="N16" s="33" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -7828,11 +7789,11 @@
       <c r="L17" s="34">
         <v>0.93</v>
       </c>
-      <c r="N17" s="34">
+      <c r="M17" s="34">
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -7867,25 +7828,25 @@
       <c r="L18" s="34">
         <v>0.93</v>
       </c>
-      <c r="N18" s="34">
+      <c r="M18" s="34">
         <v>0.73</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
